--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-RelatedPerson.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-RelatedPerson.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-RelatedPerson.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-RelatedPerson.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>2.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-RelatedPerson.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-RelatedPerson.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="459">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.3.0</t>
+    <t>2.2.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -255,6 +255,10 @@
   </si>
   <si>
     <t>Information about a person that is involved in the care for a patient, but who is not the target of healthcare, nor has a formal responsibility in the care process.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>role</t>
@@ -1339,7 +1343,7 @@
     <t>http://hl7.no/fhir/StructureDefinition/no-basis-Address</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
   </si>
   <si>
     <t>Need to keep track where the related person can be contacted per postal mail or visited.</t>
@@ -1588,10 +1592,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2026,10 +2030,10 @@
         <v>73</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>73</v>
@@ -2040,10 +2044,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2054,7 +2058,7 @@
         <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>73</v>
@@ -2063,19 +2067,19 @@
         <v>73</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2125,13 +2129,13 @@
         <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>73</v>
@@ -2151,10 +2155,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2165,7 +2169,7 @@
         <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>73</v>
@@ -2174,16 +2178,16 @@
         <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2234,19 +2238,19 @@
         <v>73</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>73</v>
@@ -2260,10 +2264,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2274,28 +2278,28 @@
         <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2345,19 +2349,19 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>73</v>
@@ -2371,10 +2375,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2385,7 +2389,7 @@
         <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>73</v>
@@ -2397,16 +2401,16 @@
         <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2432,13 +2436,13 @@
         <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>73</v>
@@ -2456,19 +2460,19 @@
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>73</v>
@@ -2482,21 +2486,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>73</v>
@@ -2508,16 +2512,16 @@
         <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2567,22 +2571,22 @@
         <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>73</v>
@@ -2593,14 +2597,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2619,16 +2623,16 @@
         <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2678,7 +2682,7 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>74</v>
@@ -2693,7 +2697,7 @@
         <v>73</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>73</v>
@@ -2704,14 +2708,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2730,16 +2734,16 @@
         <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2789,7 +2793,7 @@
         <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>74</v>
@@ -2801,10 +2805,10 @@
         <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>73</v>
@@ -2815,14 +2819,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2835,25 +2839,25 @@
         <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>73</v>
@@ -2902,7 +2906,7 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
@@ -2914,10 +2918,10 @@
         <v>73</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>73</v>
@@ -2928,10 +2932,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2951,20 +2955,20 @@
         <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>73</v>
@@ -3001,17 +3005,17 @@
         <v>73</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>74</v>
@@ -3023,27 +3027,27 @@
         <v>73</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>73</v>
@@ -3062,20 +3066,20 @@
         <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>73</v>
@@ -3124,7 +3128,7 @@
         <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>74</v>
@@ -3136,24 +3140,24 @@
         <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3164,7 +3168,7 @@
         <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>73</v>
@@ -3176,13 +3180,13 @@
         <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3233,13 +3237,13 @@
         <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>73</v>
@@ -3248,7 +3252,7 @@
         <v>73</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>73</v>
@@ -3259,14 +3263,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3285,16 +3289,16 @@
         <v>73</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3332,19 +3336,19 @@
         <v>73</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>74</v>
@@ -3356,10 +3360,10 @@
         <v>73</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>73</v>
@@ -3370,10 +3374,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3384,31 +3388,31 @@
         <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>73</v>
@@ -3433,13 +3437,13 @@
         <v>73</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>73</v>
@@ -3457,36 +3461,36 @@
         <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3497,7 +3501,7 @@
         <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>73</v>
@@ -3506,22 +3510,22 @@
         <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>73</v>
@@ -3546,13 +3550,13 @@
         <v>73</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>73</v>
@@ -3570,36 +3574,36 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3607,10 +3611,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>73</v>
@@ -3619,35 +3623,35 @@
         <v>73</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>73</v>
@@ -3683,47 +3687,47 @@
         <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>73</v>
@@ -3732,19 +3736,19 @@
         <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3758,7 +3762,7 @@
         <v>73</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>73</v>
@@ -3794,36 +3798,36 @@
         <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3834,7 +3838,7 @@
         <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>73</v>
@@ -3843,16 +3847,16 @@
         <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3903,36 +3907,36 @@
         <v>73</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3943,7 +3947,7 @@
         <v>74</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>73</v>
@@ -3952,19 +3956,19 @@
         <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4014,39 +4018,39 @@
         <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>73</v>
@@ -4065,20 +4069,20 @@
         <v>73</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>73</v>
@@ -4127,7 +4131,7 @@
         <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>
@@ -4139,24 +4143,24 @@
         <v>73</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4167,7 +4171,7 @@
         <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>73</v>
@@ -4179,13 +4183,13 @@
         <v>73</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4236,13 +4240,13 @@
         <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>73</v>
@@ -4251,7 +4255,7 @@
         <v>73</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>73</v>
@@ -4262,14 +4266,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4288,16 +4292,16 @@
         <v>73</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4335,19 +4339,19 @@
         <v>73</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>74</v>
@@ -4359,10 +4363,10 @@
         <v>73</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>73</v>
@@ -4373,10 +4377,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4387,31 +4391,31 @@
         <v>74</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>73</v>
@@ -4436,13 +4440,13 @@
         <v>73</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>73</v>
@@ -4460,36 +4464,36 @@
         <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4500,7 +4504,7 @@
         <v>74</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>73</v>
@@ -4509,22 +4513,22 @@
         <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>73</v>
@@ -4549,13 +4553,13 @@
         <v>73</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>73</v>
@@ -4573,36 +4577,36 @@
         <v>73</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4610,10 +4614,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>73</v>
@@ -4622,35 +4626,35 @@
         <v>73</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>73</v>
@@ -4686,47 +4690,47 @@
         <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>73</v>
@@ -4735,19 +4739,19 @@
         <v>73</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4761,7 +4765,7 @@
         <v>73</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>73</v>
@@ -4797,36 +4801,36 @@
         <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4837,7 +4841,7 @@
         <v>74</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>73</v>
@@ -4846,16 +4850,16 @@
         <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4906,36 +4910,36 @@
         <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4946,7 +4950,7 @@
         <v>74</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>73</v>
@@ -4955,19 +4959,19 @@
         <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5017,36 +5021,36 @@
         <v>73</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5057,100 +5061,100 @@
         <v>74</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q30" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="P30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q30" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="AG30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>73</v>
@@ -5158,10 +5162,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5169,10 +5173,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>73</v>
@@ -5181,20 +5185,20 @@
         <v>73</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>73</v>
@@ -5243,36 +5247,36 @@
         <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5292,20 +5296,20 @@
         <v>73</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>73</v>
@@ -5330,29 +5334,29 @@
         <v>73</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>74</v>
@@ -5364,30 +5368,30 @@
         <v>73</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5403,20 +5407,20 @@
         <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>73</v>
@@ -5441,11 +5445,11 @@
         <v>73</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>73</v>
@@ -5463,7 +5467,7 @@
         <v>73</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>74</v>
@@ -5475,24 +5479,24 @@
         <v>73</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5503,7 +5507,7 @@
         <v>74</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>73</v>
@@ -5515,13 +5519,13 @@
         <v>73</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5572,13 +5576,13 @@
         <v>73</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>73</v>
@@ -5587,7 +5591,7 @@
         <v>73</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>73</v>
@@ -5598,14 +5602,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5624,16 +5628,16 @@
         <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5671,19 +5675,19 @@
         <v>73</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>74</v>
@@ -5695,10 +5699,10 @@
         <v>73</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>73</v>
@@ -5709,10 +5713,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5732,22 +5736,22 @@
         <v>73</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>73</v>
@@ -5796,7 +5800,7 @@
         <v>73</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>74</v>
@@ -5808,24 +5812,24 @@
         <v>73</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5836,7 +5840,7 @@
         <v>74</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>73</v>
@@ -5848,13 +5852,13 @@
         <v>73</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5905,13 +5909,13 @@
         <v>73</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>73</v>
@@ -5920,7 +5924,7 @@
         <v>73</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>73</v>
@@ -5931,14 +5935,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5957,16 +5961,16 @@
         <v>73</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6004,19 +6008,19 @@
         <v>73</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>74</v>
@@ -6028,10 +6032,10 @@
         <v>73</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>73</v>
@@ -6042,10 +6046,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6053,10 +6057,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>73</v>
@@ -6065,29 +6069,29 @@
         <v>73</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>73</v>
@@ -6129,36 +6133,36 @@
         <v>73</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6169,7 +6173,7 @@
         <v>74</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>73</v>
@@ -6178,19 +6182,19 @@
         <v>73</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6240,36 +6244,36 @@
         <v>73</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6280,7 +6284,7 @@
         <v>74</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>73</v>
@@ -6289,20 +6293,20 @@
         <v>73</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>73</v>
@@ -6351,36 +6355,36 @@
         <v>73</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6391,7 +6395,7 @@
         <v>74</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>73</v>
@@ -6400,20 +6404,20 @@
         <v>73</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>73</v>
@@ -6462,36 +6466,36 @@
         <v>73</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6502,7 +6506,7 @@
         <v>74</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>73</v>
@@ -6511,22 +6515,22 @@
         <v>73</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>73</v>
@@ -6575,36 +6579,36 @@
         <v>73</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6615,7 +6619,7 @@
         <v>74</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>73</v>
@@ -6624,22 +6628,22 @@
         <v>73</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>73</v>
@@ -6688,42 +6692,42 @@
         <v>73</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6739,20 +6743,20 @@
         <v>73</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>73</v>
@@ -6777,11 +6781,11 @@
         <v>73</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>73</v>
@@ -6799,7 +6803,7 @@
         <v>73</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>74</v>
@@ -6811,24 +6815,24 @@
         <v>73</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6839,7 +6843,7 @@
         <v>74</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>73</v>
@@ -6851,13 +6855,13 @@
         <v>73</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6908,13 +6912,13 @@
         <v>73</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>73</v>
@@ -6923,7 +6927,7 @@
         <v>73</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>73</v>
@@ -6934,14 +6938,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6960,16 +6964,16 @@
         <v>73</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7007,19 +7011,19 @@
         <v>73</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>74</v>
@@ -7031,10 +7035,10 @@
         <v>73</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>73</v>
@@ -7045,10 +7049,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7068,22 +7072,22 @@
         <v>73</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>73</v>
@@ -7132,7 +7136,7 @@
         <v>73</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>74</v>
@@ -7144,24 +7148,24 @@
         <v>73</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7172,7 +7176,7 @@
         <v>74</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>73</v>
@@ -7184,13 +7188,13 @@
         <v>73</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7241,13 +7245,13 @@
         <v>73</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>73</v>
@@ -7256,7 +7260,7 @@
         <v>73</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>73</v>
@@ -7267,14 +7271,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7293,16 +7297,16 @@
         <v>73</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7340,19 +7344,19 @@
         <v>73</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>74</v>
@@ -7364,10 +7368,10 @@
         <v>73</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>73</v>
@@ -7378,10 +7382,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7389,10 +7393,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>73</v>
@@ -7401,29 +7405,29 @@
         <v>73</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>73</v>
@@ -7465,36 +7469,36 @@
         <v>73</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7505,7 +7509,7 @@
         <v>74</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>73</v>
@@ -7514,19 +7518,19 @@
         <v>73</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7576,36 +7580,36 @@
         <v>73</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7616,7 +7620,7 @@
         <v>74</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>73</v>
@@ -7625,20 +7629,20 @@
         <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>73</v>
@@ -7687,36 +7691,36 @@
         <v>73</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7727,7 +7731,7 @@
         <v>74</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>73</v>
@@ -7736,20 +7740,20 @@
         <v>73</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>73</v>
@@ -7798,36 +7802,36 @@
         <v>73</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7838,7 +7842,7 @@
         <v>74</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>73</v>
@@ -7847,22 +7851,22 @@
         <v>73</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>73</v>
@@ -7911,36 +7915,36 @@
         <v>73</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7951,7 +7955,7 @@
         <v>74</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>73</v>
@@ -7960,22 +7964,22 @@
         <v>73</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>73</v>
@@ -8024,42 +8028,42 @@
         <v>73</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8075,20 +8079,20 @@
         <v>73</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>73</v>
@@ -8113,11 +8117,11 @@
         <v>73</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>73</v>
@@ -8135,7 +8139,7 @@
         <v>73</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>74</v>
@@ -8147,24 +8151,24 @@
         <v>73</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8175,7 +8179,7 @@
         <v>74</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>73</v>
@@ -8187,13 +8191,13 @@
         <v>73</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8244,13 +8248,13 @@
         <v>73</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>73</v>
@@ -8259,7 +8263,7 @@
         <v>73</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>73</v>
@@ -8270,14 +8274,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8296,16 +8300,16 @@
         <v>73</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8343,19 +8347,19 @@
         <v>73</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>74</v>
@@ -8367,10 +8371,10 @@
         <v>73</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>73</v>
@@ -8381,10 +8385,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8404,22 +8408,22 @@
         <v>73</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>73</v>
@@ -8468,7 +8472,7 @@
         <v>73</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>74</v>
@@ -8480,24 +8484,24 @@
         <v>73</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8508,7 +8512,7 @@
         <v>74</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>73</v>
@@ -8520,13 +8524,13 @@
         <v>73</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8577,13 +8581,13 @@
         <v>73</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>73</v>
@@ -8592,7 +8596,7 @@
         <v>73</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>73</v>
@@ -8603,14 +8607,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8629,16 +8633,16 @@
         <v>73</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8676,19 +8680,19 @@
         <v>73</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>74</v>
@@ -8700,10 +8704,10 @@
         <v>73</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>73</v>
@@ -8714,10 +8718,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8725,10 +8729,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>73</v>
@@ -8737,29 +8741,29 @@
         <v>73</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>73</v>
@@ -8801,36 +8805,36 @@
         <v>73</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8841,7 +8845,7 @@
         <v>74</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>73</v>
@@ -8850,19 +8854,19 @@
         <v>73</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8912,36 +8916,36 @@
         <v>73</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8952,7 +8956,7 @@
         <v>74</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>73</v>
@@ -8961,20 +8965,20 @@
         <v>73</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>73</v>
@@ -9023,36 +9027,36 @@
         <v>73</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9063,7 +9067,7 @@
         <v>74</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>73</v>
@@ -9072,20 +9076,20 @@
         <v>73</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>73</v>
@@ -9134,36 +9138,36 @@
         <v>73</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9174,7 +9178,7 @@
         <v>74</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>73</v>
@@ -9183,22 +9187,22 @@
         <v>73</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>73</v>
@@ -9247,36 +9251,36 @@
         <v>73</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9287,7 +9291,7 @@
         <v>74</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>73</v>
@@ -9296,22 +9300,22 @@
         <v>73</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>73</v>
@@ -9360,36 +9364,36 @@
         <v>73</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9412,19 +9416,19 @@
         <v>73</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>73</v>
@@ -9473,7 +9477,7 @@
         <v>73</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>74</v>
@@ -9482,27 +9486,27 @@
         <v>75</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9522,22 +9526,22 @@
         <v>73</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>73</v>
@@ -9586,7 +9590,7 @@
         <v>73</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>74</v>
@@ -9598,24 +9602,24 @@
         <v>73</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9626,7 +9630,7 @@
         <v>74</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>73</v>
@@ -9635,20 +9639,20 @@
         <v>73</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>73</v>
@@ -9673,13 +9677,13 @@
         <v>73</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>73</v>
@@ -9697,36 +9701,36 @@
         <v>73</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9737,7 +9741,7 @@
         <v>74</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>73</v>
@@ -9746,16 +9750,16 @@
         <v>73</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9806,22 +9810,22 @@
         <v>73</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>73</v>
@@ -9832,10 +9836,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9858,19 +9862,19 @@
         <v>73</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>73</v>
@@ -9919,7 +9923,7 @@
         <v>73</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>74</v>
@@ -9928,27 +9932,27 @@
         <v>75</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9971,17 +9975,17 @@
         <v>73</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>73</v>
@@ -10030,7 +10034,7 @@
         <v>73</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>74</v>
@@ -10042,24 +10046,24 @@
         <v>73</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10070,7 +10074,7 @@
         <v>74</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>73</v>
@@ -10082,13 +10086,13 @@
         <v>73</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10139,25 +10143,25 @@
         <v>73</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>73</v>
@@ -10165,10 +10169,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10191,19 +10195,19 @@
         <v>73</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>73</v>
@@ -10252,7 +10256,7 @@
         <v>73</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>74</v>
@@ -10264,10 +10268,10 @@
         <v>73</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>73</v>
@@ -10278,10 +10282,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10292,7 +10296,7 @@
         <v>74</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>73</v>
@@ -10304,13 +10308,13 @@
         <v>73</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10361,13 +10365,13 @@
         <v>73</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>73</v>
@@ -10376,7 +10380,7 @@
         <v>73</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>73</v>
@@ -10387,14 +10391,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -10413,16 +10417,16 @@
         <v>73</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10472,7 +10476,7 @@
         <v>73</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>74</v>
@@ -10484,10 +10488,10 @@
         <v>73</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>73</v>
@@ -10498,14 +10502,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -10518,25 +10522,25 @@
         <v>73</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>73</v>
@@ -10585,7 +10589,7 @@
         <v>73</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>74</v>
@@ -10597,10 +10601,10 @@
         <v>73</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>73</v>
@@ -10611,10 +10615,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10622,10 +10626,10 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>73</v>
@@ -10637,19 +10641,19 @@
         <v>73</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>73</v>
@@ -10674,13 +10678,13 @@
         <v>73</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>73</v>
@@ -10698,22 +10702,22 @@
         <v>73</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>73</v>
@@ -10724,10 +10728,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10738,7 +10742,7 @@
         <v>74</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>73</v>
@@ -10750,19 +10754,19 @@
         <v>73</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>73</v>
@@ -10811,22 +10815,22 @@
         <v>73</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>73</v>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-RelatedPerson.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-RelatedPerson.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2884" uniqueCount="456">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-test</t>
+    <t>2.2.2-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -1243,26 +1243,19 @@
 </t>
   </si>
   <si>
-    <t>Norwegian human name</t>
-  </si>
-  <si>
-    <t>Defines the format of norwegian human name according to norwegian legislation (lov om personnavn).</t>
-  </si>
-  <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+    <t>A name associated with the person</t>
+  </si>
+  <si>
+    <t>A name associated with the person.</t>
   </si>
   <si>
     <t>Related persons need to be identified by name, but it is uncommon to need details about multiple other names for that person.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>EN (actually, PN)</t>
-  </si>
-  <si>
-    <t>XPN</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>NK1-2</t>
   </si>
   <si>
     <t>RelatedPerson.telecom</t>
@@ -1343,16 +1336,13 @@
     <t>http://hl7.no/fhir/StructureDefinition/no-basis-Address</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
-  </si>
-  <si>
     <t>Need to keep track where the related person can be contacted per postal mail or visited.</t>
   </si>
   <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>XAD</t>
+    <t>addr</t>
+  </si>
+  <si>
+    <t>NK1-4</t>
   </si>
   <si>
     <t>RelatedPerson.photo</t>
@@ -9413,7 +9403,7 @@
         <v>73</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>384</v>
@@ -9424,11 +9414,9 @@
       <c r="M69" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>73</v>
@@ -9486,27 +9474,27 @@
         <v>75</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>389</v>
+        <v>73</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9529,19 +9517,19 @@
         <v>83</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>73</v>
@@ -9590,7 +9578,7 @@
         <v>73</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>74</v>
@@ -9605,21 +9593,21 @@
         <v>94</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9645,14 +9633,14 @@
         <v>102</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>73</v>
@@ -9680,10 +9668,10 @@
         <v>172</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>73</v>
@@ -9701,7 +9689,7 @@
         <v>73</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>74</v>
@@ -9716,21 +9704,21 @@
         <v>94</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9753,13 +9741,13 @@
         <v>83</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9810,7 +9798,7 @@
         <v>73</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>74</v>
@@ -9825,7 +9813,7 @@
         <v>94</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>73</v>
@@ -9836,10 +9824,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9859,22 +9847,20 @@
         <v>73</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>73</v>
@@ -9923,7 +9909,7 @@
         <v>73</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>74</v>
@@ -9932,27 +9918,27 @@
         <v>75</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>389</v>
+        <v>73</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9975,17 +9961,17 @@
         <v>73</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>73</v>
@@ -10034,7 +10020,7 @@
         <v>73</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>74</v>
@@ -10049,21 +10035,21 @@
         <v>94</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10089,10 +10075,10 @@
         <v>212</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10143,7 +10129,7 @@
         <v>73</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>74</v>
@@ -10158,10 +10144,10 @@
         <v>94</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>73</v>
@@ -10169,10 +10155,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10195,19 +10181,19 @@
         <v>73</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N76" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="O76" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>73</v>
@@ -10256,7 +10242,7 @@
         <v>73</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>74</v>
@@ -10271,7 +10257,7 @@
         <v>94</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>73</v>
@@ -10282,10 +10268,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10391,10 +10377,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10502,14 +10488,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -10531,10 +10517,10 @@
         <v>128</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="N79" t="s" s="2">
         <v>131</v>
@@ -10589,7 +10575,7 @@
         <v>73</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>74</v>
@@ -10615,10 +10601,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10644,16 +10630,16 @@
         <v>179</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="O80" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>73</v>
@@ -10702,7 +10688,7 @@
         <v>73</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>82</v>
@@ -10717,7 +10703,7 @@
         <v>94</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>73</v>
@@ -10728,10 +10714,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10757,16 +10743,16 @@
         <v>246</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="O81" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>73</v>
@@ -10815,7 +10801,7 @@
         <v>73</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>74</v>
@@ -10830,7 +10816,7 @@
         <v>94</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>73</v>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-RelatedPerson.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-RelatedPerson.xlsx
@@ -350,7 +350,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -599,7 +599,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -703,7 +703,7 @@
     <t>RelatedPerson.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -849,7 +849,7 @@
     <t>The nature of the relationship between a patient and the related person.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/relatedperson-relationshiptype</t>
+    <t>http://hl7.org/fhir/ValueSet/relatedperson-relationshiptype|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:coding.system}
@@ -1764,17 +1764,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.77734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.27734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.25" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.21484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="70.00390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="60.015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1783,25 +1783,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.61328125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="38.27734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.3515625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="45.6171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="39.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-RelatedPerson.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-RelatedPerson.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/StructureDefinition/no-basis-RelatedPerson</t>
+    <t>http://hl7.no/fhir/ig/StructureDefinition/no-basis-RelatedPerson</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.2-test</t>
+    <t>2.2.3-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -811,7 +811,7 @@
     <t>RelatedPerson.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|http://hl7.no/fhir/StructureDefinition/no-basis-Patient)
+    <t xml:space="preserve">Reference(Patient|http://hl7.no/fhir/ig/StructureDefinition/no-basis-Patient)
 </t>
   </si>
   <si>
@@ -1239,7 +1239,7 @@
     <t>RelatedPerson.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {http://hl7.no/fhir/StructureDefinition/no-basis-HumanName}
+    <t xml:space="preserve">HumanName {http://hl7.no/fhir/ig/StructureDefinition/no-basis-HumanName}
 </t>
   </si>
   <si>
@@ -1326,7 +1326,7 @@
     <t>RelatedPerson.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {http://hl7.no/fhir/StructureDefinition/no-basis-Address}
+    <t xml:space="preserve">Address {http://hl7.no/fhir/ig/StructureDefinition/no-basis-Address}
 </t>
   </si>
   <si>
@@ -1774,7 +1774,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="60.015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="61.98046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
